--- a/ImportGLVoucher/用户客户端部署文件/凭证V1.0.xlsx
+++ b/ImportGLVoucher/用户客户端部署文件/凭证V1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U8API开发\BestU8\BestU8\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,96 +19,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+  <si>
+    <t>凭证号</t>
+  </si>
+  <si>
+    <t>制单人</t>
+  </si>
+  <si>
+    <t>凭证ID</t>
+  </si>
+  <si>
+    <t>会计年</t>
+  </si>
+  <si>
+    <t>会计期间</t>
+  </si>
+  <si>
+    <t>制单日期</t>
+  </si>
+  <si>
+    <t>凭证类别</t>
+  </si>
+  <si>
+    <t>科目编码</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>币种名称</t>
+  </si>
+  <si>
+    <t>部门编码</t>
+  </si>
+  <si>
+    <t>职员编码</t>
+  </si>
+  <si>
+    <t>客户编码</t>
+  </si>
+  <si>
+    <t>供应商编码</t>
+  </si>
+  <si>
+    <t>项目大类编码</t>
+  </si>
+  <si>
+    <t>项目编码</t>
+  </si>
+  <si>
+    <t>是否导入</t>
+  </si>
+  <si>
+    <t>错误信息</t>
+  </si>
+  <si>
+    <t>账套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方原币金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原凭证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试后台导入总账凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方本位币金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方本位币金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方原币金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自筹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6402</t>
-  </si>
-  <si>
-    <t>测试后台导入总账凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6711</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>凭证号</t>
-  </si>
-  <si>
-    <t>制单人</t>
-  </si>
-  <si>
-    <t>凭证ID</t>
-  </si>
-  <si>
-    <t>会计年</t>
-  </si>
-  <si>
-    <t>会计期间</t>
-  </si>
-  <si>
-    <t>制单日期</t>
-  </si>
-  <si>
-    <t>凭证类别</t>
-  </si>
-  <si>
-    <t>科目编码</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>币种名称</t>
-  </si>
-  <si>
-    <t>借方金额</t>
-  </si>
-  <si>
-    <t>贷方金额</t>
-  </si>
-  <si>
-    <t>部门编码</t>
-  </si>
-  <si>
-    <t>职员编码</t>
-  </si>
-  <si>
-    <t>客户编码</t>
-  </si>
-  <si>
-    <t>供应商编码</t>
-  </si>
-  <si>
-    <t>项目大类编码</t>
-  </si>
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>业务员</t>
-  </si>
-  <si>
-    <t>是否导入</t>
-  </si>
-  <si>
-    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府项目测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -119,7 +182,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -146,6 +209,25 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -189,7 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +284,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -223,10 +302,22 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,355 +601,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
-    <col min="14" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="11.75" customWidth="1"/>
-    <col min="18" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="7.75" customWidth="1"/>
-    <col min="21" max="21" width="28.125" customWidth="1"/>
+    <col min="2" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="19" width="8.25" customWidth="1"/>
+    <col min="20" max="20" width="10.125" customWidth="1"/>
+    <col min="21" max="21" width="11.75" customWidth="1"/>
+    <col min="22" max="22" width="10.125" customWidth="1"/>
+    <col min="23" max="23" width="10.375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="18.875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="11" customWidth="1"/>
+    <col min="27" max="27" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="L1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="S1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="T1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="U1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="W1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="AA1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>42035</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12">
         <v>778.88</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="11">
+        <v>19051234</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>42035</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12">
         <v>778.88</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="11">
+        <v>19051234</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>42035</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>779.99</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="11">
+        <v>19051235</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>42035</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12">
         <v>779.99</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="11">
+        <v>19051235</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>42035</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>3</v>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <v>789.1</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="11">
+        <v>19051236</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42035</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12">
+        <v>789.1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="11">
+        <v>19051236</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>789.1</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="E8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42035</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="12">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1378</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="W8" s="11">
+        <v>19051237</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42035</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="12">
+        <v>200</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12">
+        <v>1378</v>
+      </c>
+      <c r="W9" s="11">
+        <v>19051237</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写凭证号，用户不需输入。" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写制单人" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用来标识同一张凭证，用户输入" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用户可选输入。但是针对辅助核算科目必输。" sqref="M1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写导入是否成功。_x000a_Y- 已导入_x000a_N-未导入" sqref="T1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="系统回写导入错误信息" sqref="U1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写制单人" sqref="B1:C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用来标识同一张凭证，用户输入" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用户可选输入。但是针对辅助核算科目必输。" sqref="Q1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写导入是否成功。_x000a_Y- 已导入_x000a_N-未导入" sqref="Z1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="系统回写导入错误信息" sqref="AA1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="如果外币凭证请输入原币金额" sqref="M1:N1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="非外币凭证输入本位币金额" sqref="O1:P1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="原账套凭证号（长度不超过10个字符）,格式YYMMxxxx" sqref="W1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="政府项目描述(长度不超过120个字符)" sqref="X1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="资金来源（长度不超过120个字符)，自筹或专项" sqref="Y1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="如果是外币凭证请输入汇率，本位币凭证汇率可以为空" sqref="L1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
